--- a/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4FC497C-E7C3-4705-A330-3DDF0E1621D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964B707A-2A8A-4B60-8A64-307DE4B687A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{538187EF-08D9-431A-91C5-2F95F790875B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC190BA9-BB8B-4ADC-871E-BB089AD5C627}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>6.0</t>
@@ -112,1450 +112,1450 @@
     <t>0,74%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>93,41%</t>
@@ -1970,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782AD760-5136-411F-8C07-F4805502B057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B554D2D3-3A2D-444C-B446-6E4110A3DB55}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>1952</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2657,13 @@
         <v>7858</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>7858</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2708,13 @@
         <v>4830</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2723,13 +2723,13 @@
         <v>3459</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2738,13 +2738,13 @@
         <v>8290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2759,13 @@
         <v>25779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2774,13 +2774,13 @@
         <v>2845</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2789,13 +2789,13 @@
         <v>28624</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2810,13 @@
         <v>6025</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2843,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2876,13 +2876,13 @@
         <v>935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2891,13 +2891,13 @@
         <v>2891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2912,13 @@
         <v>536038</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
@@ -2927,13 +2927,13 @@
         <v>575964</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -2942,13 +2942,13 @@
         <v>1112002</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3016,13 +3016,13 @@
         <v>2109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3046,13 +3046,13 @@
         <v>2109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3067,13 @@
         <v>6418</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3097,13 +3097,13 @@
         <v>6418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3118,13 @@
         <v>17634</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3133,13 +3133,13 @@
         <v>2037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3148,13 +3148,13 @@
         <v>19671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3169,13 @@
         <v>13741</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3184,13 +3184,13 @@
         <v>1221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3199,13 +3199,13 @@
         <v>14962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3220,13 @@
         <v>29486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3235,13 +3235,13 @@
         <v>5053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3250,13 +3250,13 @@
         <v>34539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>17808</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -3286,13 +3286,13 @@
         <v>3058</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3301,10 +3301,10 @@
         <v>20866</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>134</v>
@@ -3325,10 +3325,10 @@
         <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3352,13 +3352,13 @@
         <v>10713</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,7 +3477,7 @@
         <v>3926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>148</v>
@@ -3498,7 +3498,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3507,7 +3507,7 @@
         <v>3926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>150</v>
@@ -3528,13 +3528,13 @@
         <v>947</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>947</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3579,13 @@
         <v>12943</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3630,7 +3630,7 @@
         <v>10817</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>23</v>
@@ -3645,13 +3645,13 @@
         <v>2017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3663,10 +3663,10 @@
         <v>155</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3681,13 @@
         <v>34714</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3696,13 +3696,13 @@
         <v>1980</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -3711,13 +3711,13 @@
         <v>36694</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3732,13 @@
         <v>16856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3747,13 +3747,13 @@
         <v>2037</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -3762,13 +3762,13 @@
         <v>18893</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3783,13 @@
         <v>10126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3804,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -3816,10 +3816,10 @@
         <v>155</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3834,13 @@
         <v>667293</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -3849,13 +3849,13 @@
         <v>768336</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M38" s="7">
         <v>1301</v>
@@ -3864,13 +3864,13 @@
         <v>1435629</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3938,13 +3938,13 @@
         <v>6577</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -3971,10 +3971,10 @@
         <v>32</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3989,13 @@
         <v>4814</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -4019,13 +4019,13 @@
         <v>4814</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4040,13 @@
         <v>16152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -4055,13 +4055,13 @@
         <v>5381</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -4070,13 +4070,13 @@
         <v>21533</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>21622</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -4112,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="M43" s="7">
         <v>24</v>
@@ -4124,10 +4124,10 @@
         <v>87</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4142,13 @@
         <v>24416</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4163,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
@@ -4172,13 +4172,13 @@
         <v>26300</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4193,13 @@
         <v>15357</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4208,13 +4208,13 @@
         <v>4840</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="M45" s="7">
         <v>21</v>
@@ -4223,13 +4223,13 @@
         <v>20198</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4244,13 @@
         <v>17867</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4259,13 +4259,13 @@
         <v>3288</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4274,13 +4274,13 @@
         <v>21155</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4295,13 @@
         <v>840036</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="H47" s="7">
         <v>987</v>
@@ -4310,13 +4310,13 @@
         <v>1034627</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M47" s="7">
         <v>1786</v>
@@ -4325,13 +4325,13 @@
         <v>1874664</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4399,13 @@
         <v>16249</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M49" s="7">
         <v>16</v>
@@ -4429,13 +4429,13 @@
         <v>16249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4450,13 @@
         <v>14130</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M50" s="7">
         <v>13</v>
@@ -4480,13 +4480,13 @@
         <v>14130</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4501,13 @@
         <v>54588</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
@@ -4516,13 +4516,13 @@
         <v>7418</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="M51" s="7">
         <v>59</v>
@@ -4531,13 +4531,13 @@
         <v>62006</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4552,13 @@
         <v>51871</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -4567,13 +4567,13 @@
         <v>8579</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="M52" s="7">
         <v>59</v>
@@ -4582,13 +4582,13 @@
         <v>60451</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4603,13 @@
         <v>117139</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H53" s="7">
         <v>12</v>
@@ -4621,10 +4621,10 @@
         <v>32</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="M53" s="7">
         <v>124</v>
@@ -4633,13 +4633,13 @@
         <v>128901</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4654,13 @@
         <v>60188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H54" s="7">
         <v>12</v>
@@ -4672,10 +4672,10 @@
         <v>32</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="M54" s="7">
         <v>71</v>
@@ -4684,13 +4684,13 @@
         <v>72065</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,10 +4708,10 @@
         <v>31</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4720,13 +4720,13 @@
         <v>7027</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
@@ -4735,13 +4735,13 @@
         <v>48551</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,28 +4756,28 @@
         <v>3069021</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H56" s="7">
         <v>3254</v>
       </c>
       <c r="I56" s="7">
-        <v>3509752</v>
+        <v>3509753</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M56" s="7">
         <v>6115</v>
@@ -4786,13 +4786,13 @@
         <v>6578773</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4819,7 @@
         <v>3297</v>
       </c>
       <c r="I57" s="7">
-        <v>3556415</v>
+        <v>3556416</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>50</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9493D-2820-439F-A3EE-3E7D812824BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F8862-A9EA-4DCA-9A5E-6746F5D1F003}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4993,13 +4993,13 @@
         <v>1058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5008,13 +5008,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5023,13 +5023,13 @@
         <v>2084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5044,13 @@
         <v>2028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5074,13 +5074,13 @@
         <v>2028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5095,13 @@
         <v>2060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5125,13 +5125,13 @@
         <v>2060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5146,13 @@
         <v>993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5176,13 +5176,13 @@
         <v>993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5197,13 @@
         <v>1805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5212,13 +5212,13 @@
         <v>812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5227,13 +5227,13 @@
         <v>2617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5248,13 @@
         <v>2848</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5263,13 +5263,13 @@
         <v>1788</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5278,13 +5278,13 @@
         <v>4636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5299,13 @@
         <v>3205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5329,13 +5329,13 @@
         <v>3205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5350,13 @@
         <v>102548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5365,10 +5365,10 @@
         <v>109735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>281</v>
@@ -5454,13 +5454,13 @@
         <v>4099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5484,13 +5484,13 @@
         <v>4099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5505,13 @@
         <v>1247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5520,13 +5520,13 @@
         <v>890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5535,13 +5535,13 @@
         <v>2137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,10 +5559,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5586,13 +5586,13 @@
         <v>4813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5607,13 @@
         <v>4768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5637,13 +5637,13 @@
         <v>4768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5658,13 @@
         <v>13951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5673,13 +5673,13 @@
         <v>2750</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5688,13 +5688,13 @@
         <v>16701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5709,13 @@
         <v>6984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5724,13 +5724,13 @@
         <v>1875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5739,13 +5739,13 @@
         <v>8859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5760,13 @@
         <v>7151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5775,13 +5775,13 @@
         <v>845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5790,13 +5790,13 @@
         <v>7996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5811,13 @@
         <v>515240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -5826,13 +5826,13 @@
         <v>553119</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>1040</v>
@@ -5841,13 +5841,13 @@
         <v>1068359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5915,13 @@
         <v>8078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5948,10 +5948,10 @@
         <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5966,13 @@
         <v>2617</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5981,13 +5981,13 @@
         <v>1018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5999,10 +5999,10 @@
         <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6017,13 @@
         <v>15350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6032,13 +6032,13 @@
         <v>2809</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6047,13 +6047,13 @@
         <v>18159</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6068,13 @@
         <v>6870</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6083,13 +6083,13 @@
         <v>943</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6101,10 +6101,10 @@
         <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,10 +6119,10 @@
         <v>21067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>311</v>
@@ -6134,13 +6134,13 @@
         <v>8691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6149,13 +6149,13 @@
         <v>29757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6170,13 @@
         <v>25803</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -6185,13 +6185,13 @@
         <v>4684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -6200,13 +6200,13 @@
         <v>30487</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6221,13 @@
         <v>22041</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -6236,13 +6236,13 @@
         <v>7378</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6251,13 +6251,13 @@
         <v>29419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6272,13 @@
         <v>920605</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -6287,13 +6287,13 @@
         <v>1017391</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>1811</v>
@@ -6302,13 +6302,13 @@
         <v>1937996</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6376,13 @@
         <v>2159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6391,13 +6391,13 @@
         <v>943</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6406,13 +6406,13 @@
         <v>3102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6427,13 @@
         <v>4490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6457,13 +6457,13 @@
         <v>4490</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6478,13 @@
         <v>19832</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -6493,13 +6493,13 @@
         <v>1932</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -6508,13 +6508,13 @@
         <v>21764</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6529,13 @@
         <v>4088</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6544,13 +6544,13 @@
         <v>2013</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -6559,13 +6559,13 @@
         <v>6102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6580,13 @@
         <v>17322</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -6595,13 +6595,13 @@
         <v>1871</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -6610,13 +6610,13 @@
         <v>19193</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>312</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6631,13 @@
         <v>11784</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6646,13 +6646,13 @@
         <v>4729</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -6661,13 +6661,13 @@
         <v>16513</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>341</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>342</v>
@@ -6700,10 +6700,10 @@
         <v>55</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6712,13 +6712,13 @@
         <v>17454</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,7 +6739,7 @@
         <v>345</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="H38" s="7">
         <v>721</v>
@@ -6748,13 +6748,13 @@
         <v>770734</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M38" s="7">
         <v>1350</v>
@@ -6763,13 +6763,13 @@
         <v>1455944</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,7 +6825,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6837,13 +6837,13 @@
         <v>8158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -6852,13 +6852,13 @@
         <v>1134</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -6867,13 +6867,13 @@
         <v>9293</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6888,13 @@
         <v>2016</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -6909,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -6918,13 +6918,13 @@
         <v>3898</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6939,13 @@
         <v>18429</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -6957,10 +6957,10 @@
         <v>356</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -6969,13 +6969,13 @@
         <v>23490</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6990,13 @@
         <v>13927</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>128</v>
+        <v>357</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -7005,13 +7005,13 @@
         <v>2175</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="M43" s="7">
         <v>16</v>
@@ -7020,13 +7020,13 @@
         <v>16102</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>356</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7056,13 @@
         <v>8893</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -7071,13 +7071,13 @@
         <v>43183</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7092,13 @@
         <v>33829</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -7107,13 +7107,13 @@
         <v>11437</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7122,13 +7122,13 @@
         <v>45266</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>13576</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>368</v>
+        <v>202</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -7158,13 +7158,13 @@
         <v>6254</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>339</v>
+        <v>112</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -7173,13 +7173,13 @@
         <v>19830</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7194,13 @@
         <v>813342</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H47" s="7">
         <v>923</v>
@@ -7209,13 +7209,13 @@
         <v>1006943</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M47" s="7">
         <v>1734</v>
@@ -7224,10 +7224,10 @@
         <v>1820285</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>377</v>
@@ -7298,13 +7298,13 @@
         <v>23552</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -7313,13 +7313,13 @@
         <v>3103</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>378</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="M49" s="7">
         <v>24</v>
@@ -7331,10 +7331,10 @@
         <v>25</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7349,13 @@
         <v>12398</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7364,13 +7364,13 @@
         <v>3791</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>378</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -7379,13 +7379,13 @@
         <v>16189</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7400,13 @@
         <v>60484</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H51" s="7">
         <v>10</v>
@@ -7415,13 +7415,13 @@
         <v>9802</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="M51" s="7">
         <v>68</v>
@@ -7430,13 +7430,13 @@
         <v>70286</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7451,13 @@
         <v>30646</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -7466,13 +7466,13 @@
         <v>5131</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M52" s="7">
         <v>35</v>
@@ -7481,13 +7481,13 @@
         <v>35777</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7502,13 @@
         <v>88435</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
@@ -7517,13 +7517,13 @@
         <v>23017</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="M53" s="7">
         <v>108</v>
@@ -7532,13 +7532,13 @@
         <v>111451</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7553,13 @@
         <v>81250</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H54" s="7">
         <v>25</v>
@@ -7568,13 +7568,13 @@
         <v>24512</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="M54" s="7">
         <v>101</v>
@@ -7583,13 +7583,13 @@
         <v>105762</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>89</v>
+        <v>337</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7604,13 @@
         <v>60640</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H55" s="7">
         <v>17</v>
@@ -7619,13 +7619,13 @@
         <v>17265</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="M55" s="7">
         <v>73</v>
@@ -7634,13 +7634,13 @@
         <v>77904</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>319</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7655,13 @@
         <v>3036946</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H56" s="7">
         <v>3250</v>
@@ -7670,13 +7670,13 @@
         <v>3457921</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="M56" s="7">
         <v>6145</v>
@@ -7685,13 +7685,13 @@
         <v>6494867</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,7 +7747,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7768,7 +7768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC8D376-4327-451E-823B-3A1F608C5364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70BB255-0022-4474-9820-F9FD6E7298BB}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7785,7 +7785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7898,7 +7898,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7922,13 +7922,13 @@
         <v>1225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7964,7 +7964,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +7994,13 @@
         <v>1268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8024,13 +8024,13 @@
         <v>1268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8045,13 @@
         <v>2598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>397</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8075,13 +8075,13 @@
         <v>2598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8096,13 @@
         <v>3184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -8126,13 +8126,13 @@
         <v>3184</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8153,7 +8153,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8198,13 @@
         <v>858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8228,13 +8228,13 @@
         <v>1432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8249,13 @@
         <v>91772</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -8264,10 +8264,10 @@
         <v>129580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -8279,13 +8279,13 @@
         <v>221352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,7 +8359,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -8368,13 +8368,13 @@
         <v>1019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8383,13 +8383,13 @@
         <v>1019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8434,13 +8434,13 @@
         <v>159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8455,13 @@
         <v>11647</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8470,13 +8470,13 @@
         <v>664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8485,13 +8485,13 @@
         <v>12311</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>416</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8506,13 @@
         <v>12899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -8536,10 +8536,10 @@
         <v>12899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>419</v>
@@ -8557,13 +8557,13 @@
         <v>9851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -8572,13 +8572,13 @@
         <v>2981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -8587,13 +8587,13 @@
         <v>12833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8608,13 @@
         <v>10681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8623,13 +8623,13 @@
         <v>3936</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -8638,13 +8638,13 @@
         <v>14617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,13 +8659,13 @@
         <v>1245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8674,13 +8674,13 @@
         <v>1828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8689,13 +8689,13 @@
         <v>3073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,13 +8710,13 @@
         <v>503340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>981</v>
@@ -8725,13 +8725,13 @@
         <v>581425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>1555</v>
@@ -8740,13 +8740,13 @@
         <v>1084766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,7 +8802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8814,13 +8814,13 @@
         <v>4212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8829,13 +8829,13 @@
         <v>2505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -8844,13 +8844,13 @@
         <v>6717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,10 +8868,10 @@
         <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8880,13 +8880,13 @@
         <v>1132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -8895,13 +8895,13 @@
         <v>5163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8916,10 +8916,10 @@
         <v>36572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>432</v>
@@ -8931,13 +8931,13 @@
         <v>10225</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -8949,7 +8949,7 @@
         <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>434</v>
@@ -8967,13 +8967,13 @@
         <v>12196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8982,13 +8982,13 @@
         <v>6036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8997,13 +8997,13 @@
         <v>18232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9018,13 +9018,13 @@
         <v>44293</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -9036,10 +9036,10 @@
         <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -9048,13 +9048,13 @@
         <v>49354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>417</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,13 +9069,13 @@
         <v>26009</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -9084,13 +9084,13 @@
         <v>6214</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -9099,13 +9099,13 @@
         <v>32223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,13 +9120,13 @@
         <v>17819</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9138,25 +9138,25 @@
         <v>58</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>19671</v>
+        <v>19672</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,13 +9171,13 @@
         <v>894116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>1477</v>
@@ -9186,28 +9186,28 @@
         <v>1024891</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>2344</v>
       </c>
       <c r="N29" s="7">
-        <v>1919006</v>
+        <v>1919007</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>2479</v>
       </c>
       <c r="N30" s="7">
-        <v>2097164</v>
+        <v>2097165</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>50</v>
@@ -9278,10 +9278,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9305,13 +9305,13 @@
         <v>2742</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,7 +9332,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9341,13 +9341,13 @@
         <v>812</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9356,13 +9356,13 @@
         <v>3468</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9377,13 +9377,13 @@
         <v>19084</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>453</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -9392,13 +9392,13 @@
         <v>4338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -9407,13 +9407,13 @@
         <v>23422</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9428,13 +9428,13 @@
         <v>7233</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -9443,13 +9443,13 @@
         <v>7274</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9458,13 +9458,13 @@
         <v>14507</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9479,13 @@
         <v>20050</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>458</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -9494,13 +9494,13 @@
         <v>4716</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -9509,13 +9509,13 @@
         <v>24766</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>113</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9530,13 @@
         <v>16817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -9545,13 +9545,13 @@
         <v>6157</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -9560,13 +9560,13 @@
         <v>22974</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9581,13 @@
         <v>12420</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9611,13 +9611,13 @@
         <v>12420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>463</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9632,13 @@
         <v>647770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H38" s="7">
         <v>1023</v>
@@ -9647,13 +9647,13 @@
         <v>851074</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M38" s="7">
         <v>1644</v>
@@ -9662,13 +9662,13 @@
         <v>1498843</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,7 +9724,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -9736,13 +9736,13 @@
         <v>9776</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -9751,13 +9751,13 @@
         <v>701</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -9766,13 +9766,13 @@
         <v>10477</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,13 +9787,13 @@
         <v>7389</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>420</v>
+        <v>237</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -9802,13 +9802,13 @@
         <v>3335</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>474</v>
+        <v>113</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -9817,13 +9817,13 @@
         <v>10725</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9838,13 @@
         <v>15701</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -9853,13 +9853,13 @@
         <v>6338</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>89</v>
+        <v>471</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -9868,13 +9868,13 @@
         <v>22039</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>476</v>
+        <v>128</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>29</v>
+        <v>353</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9886,16 +9886,16 @@
         <v>17</v>
       </c>
       <c r="D43" s="7">
-        <v>20457</v>
+        <v>20456</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>478</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -9907,10 +9907,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>479</v>
+        <v>197</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
@@ -9919,13 +9919,13 @@
         <v>24633</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9940,13 +9940,13 @@
         <v>47762</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9955,13 +9955,13 @@
         <v>5688</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M44" s="7">
         <v>41</v>
@@ -9970,13 +9970,13 @@
         <v>53450</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9991,13 +9991,13 @@
         <v>26722</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>113</v>
+        <v>477</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>111</v>
+        <v>478</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>485</v>
+        <v>42</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -10006,13 +10006,13 @@
         <v>9084</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="M45" s="7">
         <v>33</v>
@@ -10021,13 +10021,13 @@
         <v>35806</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>486</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,13 +10042,13 @@
         <v>22790</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>128</v>
+        <v>479</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>487</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -10057,13 +10057,13 @@
         <v>2342</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -10072,10 +10072,10 @@
         <v>25132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>341</v>
@@ -10090,16 +10090,16 @@
         <v>890</v>
       </c>
       <c r="D47" s="7">
-        <v>814647</v>
+        <v>814646</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H47" s="7">
         <v>1525</v>
@@ -10108,13 +10108,13 @@
         <v>1113762</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>102</v>
+        <v>485</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>347</v>
+        <v>49</v>
       </c>
       <c r="M47" s="7">
         <v>2415</v>
@@ -10123,13 +10123,13 @@
         <v>1928409</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10141,7 +10141,7 @@
         <v>1005</v>
       </c>
       <c r="D48" s="7">
-        <v>965244</v>
+        <v>965243</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -10197,13 +10197,13 @@
         <v>17955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -10212,13 +10212,13 @@
         <v>4224</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="M49" s="7">
         <v>20</v>
@@ -10227,13 +10227,13 @@
         <v>22180</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>356</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,13 +10248,13 @@
         <v>14235</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10263,13 +10263,13 @@
         <v>5280</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -10278,13 +10278,13 @@
         <v>19515</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10299,13 @@
         <v>84271</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>15</v>
+        <v>489</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -10314,13 +10314,13 @@
         <v>21565</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="M51" s="7">
         <v>83</v>
@@ -10329,13 +10329,13 @@
         <v>105836</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10350,13 @@
         <v>55383</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>436</v>
+        <v>241</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -10365,13 +10365,13 @@
         <v>17486</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="M52" s="7">
         <v>55</v>
@@ -10380,13 +10380,13 @@
         <v>72869</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,13 +10401,13 @@
         <v>125141</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>314</v>
+        <v>492</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H53" s="7">
         <v>27</v>
@@ -10416,13 +10416,13 @@
         <v>18447</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M53" s="7">
         <v>119</v>
@@ -10431,13 +10431,13 @@
         <v>143587</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,10 +10455,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>256</v>
+        <v>497</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -10467,13 +10467,13 @@
         <v>25391</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="M54" s="7">
         <v>87</v>
@@ -10482,13 +10482,13 @@
         <v>105621</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>416</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10503,10 +10503,10 @@
         <v>55132</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>26</v>
@@ -10518,13 +10518,13 @@
         <v>6596</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M55" s="7">
         <v>45</v>
@@ -10536,10 +10536,10 @@
         <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>339</v>
+        <v>112</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10554,13 +10554,13 @@
         <v>2951645</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H56" s="7">
         <v>5247</v>
@@ -10569,13 +10569,13 @@
         <v>3700731</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M56" s="7">
         <v>8308</v>
@@ -10584,7 +10584,7 @@
         <v>6652377</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>505</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964B707A-2A8A-4B60-8A64-307DE4B687A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA335195-FF78-4D6D-B5DE-BE49E2493762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC190BA9-BB8B-4ADC-871E-BB089AD5C627}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1017D8A-4F30-4239-A134-28886D5DF796}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="503">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>7.0</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,5%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>6.0</t>
@@ -112,1410 +112,1401 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1.0</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
     <t>3,7%</t>
   </si>
   <si>
@@ -1523,9 +1514,6 @@
   </si>
   <si>
     <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1970,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B554D2D3-3A2D-444C-B446-6E4110A3DB55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901D7E9D-4ED1-4056-B797-61716ADFB3BC}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2636,13 +2624,13 @@
         <v>1952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,10 +2645,10 @@
         <v>7858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>64</v>
@@ -2690,10 +2678,10 @@
         <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2696,13 @@
         <v>4830</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2723,13 +2711,13 @@
         <v>3459</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2738,13 +2726,13 @@
         <v>8290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2747,13 @@
         <v>25779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2774,13 +2762,13 @@
         <v>2845</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2789,13 +2777,13 @@
         <v>28624</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2798,13 @@
         <v>6025</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2831,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2846,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2876,13 +2864,13 @@
         <v>935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2891,13 +2879,13 @@
         <v>2891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2900,13 @@
         <v>536038</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
@@ -2927,13 +2915,13 @@
         <v>575964</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -2942,13 +2930,13 @@
         <v>1112002</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +2992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3016,13 +3004,13 @@
         <v>2109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3037,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3046,13 +3034,13 @@
         <v>2109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3055,13 @@
         <v>6418</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3088,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3097,13 +3085,13 @@
         <v>6418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3106,13 @@
         <v>17634</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3133,13 +3121,13 @@
         <v>2037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3148,13 +3136,13 @@
         <v>19671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3157,13 @@
         <v>13741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3184,13 +3172,13 @@
         <v>1221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3199,13 +3187,13 @@
         <v>14962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3208,13 @@
         <v>29486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3235,13 +3223,13 @@
         <v>5053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3250,13 +3238,13 @@
         <v>34539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3259,13 @@
         <v>17808</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -3286,13 +3274,13 @@
         <v>3058</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3301,13 +3289,13 @@
         <v>20866</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3310,13 @@
         <v>10713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3343,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3352,13 +3340,13 @@
         <v>10713</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3361,13 @@
         <v>920037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>928</v>
@@ -3388,13 +3376,13 @@
         <v>1018921</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>1774</v>
@@ -3403,13 +3391,13 @@
         <v>1938959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3453,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -3477,13 +3465,13 @@
         <v>3926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3498,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3507,13 +3495,13 @@
         <v>3926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3516,13 @@
         <v>947</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3549,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3558,13 +3546,13 @@
         <v>947</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3567,13 @@
         <v>12943</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3600,7 +3588,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3609,13 +3597,13 @@
         <v>12943</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3618,13 @@
         <v>10817</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3645,13 +3633,13 @@
         <v>2017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3660,13 +3648,13 @@
         <v>12834</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3669,13 @@
         <v>34714</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3696,13 +3684,13 @@
         <v>1980</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -3711,13 +3699,13 @@
         <v>36694</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3720,13 @@
         <v>16856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3747,13 +3735,13 @@
         <v>2037</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -3762,13 +3750,13 @@
         <v>18893</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3771,13 @@
         <v>10126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3804,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -3813,13 +3801,13 @@
         <v>12931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>667293</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -3849,13 +3837,13 @@
         <v>768336</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>1301</v>
@@ -3864,13 +3852,13 @@
         <v>1435629</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3914,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3938,13 +3926,13 @@
         <v>6577</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3959,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -3971,10 +3959,10 @@
         <v>32</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3977,13 @@
         <v>4814</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4010,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -4019,13 +4007,13 @@
         <v>4814</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>16152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -4055,13 +4043,13 @@
         <v>5381</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -4070,13 +4058,13 @@
         <v>21533</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>190</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4079,13 @@
         <v>21622</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -4112,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M43" s="7">
         <v>24</v>
@@ -4121,13 +4109,13 @@
         <v>23504</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4130,13 @@
         <v>24416</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4163,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
@@ -4172,13 +4160,13 @@
         <v>26300</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>15357</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4208,13 +4196,13 @@
         <v>4840</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="M45" s="7">
         <v>21</v>
@@ -4223,13 +4211,13 @@
         <v>20198</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4232,13 @@
         <v>17867</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4259,13 +4247,13 @@
         <v>3288</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4274,13 +4262,13 @@
         <v>21155</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4283,13 @@
         <v>840036</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="H47" s="7">
         <v>987</v>
@@ -4310,28 +4298,28 @@
         <v>1034627</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M47" s="7">
         <v>1786</v>
       </c>
       <c r="N47" s="7">
-        <v>1874664</v>
+        <v>1874663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4361,7 @@
         <v>1912</v>
       </c>
       <c r="N48" s="7">
-        <v>1998744</v>
+        <v>1998743</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -4399,13 +4387,13 @@
         <v>16249</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4420,7 +4408,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M49" s="7">
         <v>16</v>
@@ -4429,13 +4417,13 @@
         <v>16249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4438,13 @@
         <v>14130</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4471,7 +4459,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M50" s="7">
         <v>13</v>
@@ -4480,13 +4468,13 @@
         <v>14130</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4489,13 @@
         <v>54588</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
@@ -4516,13 +4504,13 @@
         <v>7418</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="M51" s="7">
         <v>59</v>
@@ -4531,13 +4519,13 @@
         <v>62006</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4540,13 @@
         <v>51871</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -4567,13 +4555,13 @@
         <v>8579</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M52" s="7">
         <v>59</v>
@@ -4582,13 +4570,13 @@
         <v>60451</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4591,13 @@
         <v>117139</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H53" s="7">
         <v>12</v>
@@ -4621,10 +4609,10 @@
         <v>32</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="M53" s="7">
         <v>124</v>
@@ -4633,13 +4621,13 @@
         <v>128901</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4642,13 @@
         <v>60188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H54" s="7">
         <v>12</v>
@@ -4672,10 +4660,10 @@
         <v>32</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="M54" s="7">
         <v>71</v>
@@ -4684,13 +4672,13 @@
         <v>72065</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,10 +4696,10 @@
         <v>31</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4720,13 +4708,13 @@
         <v>7027</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
@@ -4735,13 +4723,13 @@
         <v>48551</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4744,13 @@
         <v>3069021</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H56" s="7">
         <v>3254</v>
@@ -4771,13 +4759,13 @@
         <v>3509753</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M56" s="7">
         <v>6115</v>
@@ -4786,13 +4774,13 @@
         <v>6578773</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4836,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F8862-A9EA-4DCA-9A5E-6746F5D1F003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD206F9-2F8B-4303-B2C8-79CD20DB080B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4993,13 +4981,13 @@
         <v>1058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5008,13 +4996,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5023,13 +5011,13 @@
         <v>2084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5032,13 @@
         <v>2028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5065,7 +5053,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5074,13 +5062,13 @@
         <v>2028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5083,13 @@
         <v>2060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5116,7 +5104,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5125,13 +5113,13 @@
         <v>2060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5134,13 @@
         <v>993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5167,7 +5155,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5176,13 +5164,13 @@
         <v>993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5185,13 @@
         <v>1805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5212,13 +5200,13 @@
         <v>812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5227,13 +5215,13 @@
         <v>2617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5236,13 @@
         <v>2848</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5263,13 +5251,13 @@
         <v>1788</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5278,13 +5266,13 @@
         <v>4636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5287,13 @@
         <v>3205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5320,7 +5308,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5329,13 +5317,13 @@
         <v>3205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5338,13 @@
         <v>102548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5365,13 +5353,13 @@
         <v>109735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -5380,13 +5368,13 @@
         <v>212283</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5442,13 @@
         <v>4099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5484,13 +5472,13 @@
         <v>4099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5493,13 @@
         <v>1247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5520,13 +5508,13 @@
         <v>890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5535,13 +5523,13 @@
         <v>2137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,10 +5547,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5586,13 +5574,13 @@
         <v>4813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,10 +5595,10 @@
         <v>4768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>287</v>
@@ -5637,10 +5625,10 @@
         <v>4768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>288</v>
@@ -5661,10 +5649,10 @@
         <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5673,13 +5661,13 @@
         <v>2750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5688,13 +5676,13 @@
         <v>16701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5697,13 @@
         <v>6984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5724,13 +5712,13 @@
         <v>1875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5739,13 +5727,13 @@
         <v>8859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5748,13 @@
         <v>7151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5775,13 +5763,13 @@
         <v>845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5790,13 +5778,13 @@
         <v>7996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5799,13 @@
         <v>515240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -5826,13 +5814,13 @@
         <v>553119</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
         <v>1040</v>
@@ -5841,13 +5829,13 @@
         <v>1068359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5891,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5903,13 @@
         <v>8078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5936,7 +5924,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5945,13 +5933,13 @@
         <v>8078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5954,13 @@
         <v>2617</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5981,13 +5969,13 @@
         <v>1018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5999,10 +5987,10 @@
         <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6005,13 @@
         <v>15350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6032,13 +6020,13 @@
         <v>2809</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6047,13 +6035,13 @@
         <v>18159</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,10 +6059,10 @@
         <v>65</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6083,13 +6071,13 @@
         <v>943</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6101,10 +6089,10 @@
         <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6107,13 @@
         <v>21067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6134,7 +6122,7 @@
         <v>8691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
@@ -6149,13 +6137,13 @@
         <v>29757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6158,13 @@
         <v>25803</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -6185,13 +6173,13 @@
         <v>4684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -6200,13 +6188,13 @@
         <v>30487</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,10 +6209,10 @@
         <v>22041</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>320</v>
@@ -6236,13 +6224,13 @@
         <v>7378</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6251,13 +6239,13 @@
         <v>29419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6260,13 @@
         <v>920605</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -6287,13 +6275,13 @@
         <v>1017391</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>1811</v>
@@ -6302,13 +6290,13 @@
         <v>1937996</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,7 +6352,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -6376,13 +6364,13 @@
         <v>2159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6391,13 +6379,13 @@
         <v>943</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6406,13 +6394,13 @@
         <v>3102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6415,13 @@
         <v>4490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6448,7 +6436,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6457,13 +6445,13 @@
         <v>4490</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6466,13 @@
         <v>19832</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -6493,13 +6481,13 @@
         <v>1932</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -6508,13 +6496,13 @@
         <v>21764</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6517,13 @@
         <v>4088</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6544,13 +6532,13 @@
         <v>2013</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -6559,13 +6547,13 @@
         <v>6102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6568,13 @@
         <v>17322</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -6595,13 +6583,13 @@
         <v>1871</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -6610,13 +6598,13 @@
         <v>19193</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6619,13 @@
         <v>11784</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6646,13 +6634,13 @@
         <v>4729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -6661,13 +6649,13 @@
         <v>16513</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6670,13 @@
         <v>14666</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6700,10 +6688,10 @@
         <v>55</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6712,13 +6700,13 @@
         <v>17454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6721,13 @@
         <v>685210</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>721</v>
@@ -6748,13 +6736,13 @@
         <v>770734</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" s="7">
         <v>1350</v>
@@ -6763,13 +6751,13 @@
         <v>1455944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,7 +6813,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6837,13 +6825,13 @@
         <v>8158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -6852,13 +6840,13 @@
         <v>1134</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -6867,13 +6855,13 @@
         <v>9293</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6876,13 @@
         <v>2016</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -6909,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -6918,13 +6906,13 @@
         <v>3898</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6927,13 @@
         <v>18429</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>354</v>
+        <v>123</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -6954,13 +6942,13 @@
         <v>5061</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -6969,13 +6957,13 @@
         <v>23490</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,10 +6978,10 @@
         <v>13927</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>357</v>
@@ -7005,13 +6993,13 @@
         <v>2175</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M43" s="7">
         <v>16</v>
@@ -7020,13 +7008,13 @@
         <v>16102</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,10 +7032,10 @@
         <v>358</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -7056,13 +7044,13 @@
         <v>8893</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -7071,13 +7059,13 @@
         <v>43183</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7080,13 @@
         <v>33829</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -7107,13 +7095,13 @@
         <v>11437</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7122,13 +7110,13 @@
         <v>45266</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7131,13 @@
         <v>13576</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>202</v>
+        <v>357</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -7158,13 +7146,13 @@
         <v>6254</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -7173,13 +7161,13 @@
         <v>19830</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7203,7 @@
         <v>373</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>1734</v>
@@ -7224,13 +7212,13 @@
         <v>1820285</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7286,13 @@
         <v>23552</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -7313,13 +7301,13 @@
         <v>3103</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="M49" s="7">
         <v>24</v>
@@ -7331,10 +7319,10 @@
         <v>25</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7337,13 @@
         <v>12398</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7364,13 +7352,13 @@
         <v>3791</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -7379,13 +7367,13 @@
         <v>16189</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7388,13 @@
         <v>60484</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H51" s="7">
         <v>10</v>
@@ -7415,13 +7403,13 @@
         <v>9802</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="M51" s="7">
         <v>68</v>
@@ -7430,13 +7418,13 @@
         <v>70286</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7439,13 @@
         <v>30646</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -7466,13 +7454,13 @@
         <v>5131</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M52" s="7">
         <v>35</v>
@@ -7481,13 +7469,13 @@
         <v>35777</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7490,13 @@
         <v>88435</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
@@ -7517,13 +7505,13 @@
         <v>23017</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="M53" s="7">
         <v>108</v>
@@ -7532,13 +7520,13 @@
         <v>111451</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7541,13 @@
         <v>81250</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H54" s="7">
         <v>25</v>
@@ -7568,13 +7556,13 @@
         <v>24512</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="M54" s="7">
         <v>101</v>
@@ -7583,13 +7571,13 @@
         <v>105762</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>386</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7592,13 @@
         <v>60640</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>17</v>
@@ -7619,13 +7607,13 @@
         <v>17265</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="M55" s="7">
         <v>73</v>
@@ -7634,13 +7622,13 @@
         <v>77904</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7643,13 @@
         <v>3036946</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H56" s="7">
         <v>3250</v>
@@ -7670,13 +7658,13 @@
         <v>3457921</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M56" s="7">
         <v>6145</v>
@@ -7685,13 +7673,13 @@
         <v>6494867</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,7 +7735,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -7768,7 +7756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70BB255-0022-4474-9820-F9FD6E7298BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61D880E-CEA7-4F2F-8587-E910C51711A5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7785,7 +7773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7898,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7913,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7922,13 +7910,13 @@
         <v>1225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,7 +7937,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7964,7 +7952,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7979,7 +7967,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +7982,13 @@
         <v>1268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8015,7 +8003,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8024,13 +8012,13 @@
         <v>1268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8033,13 @@
         <v>2598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8066,7 +8054,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8075,13 +8063,13 @@
         <v>2598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8084,13 @@
         <v>3184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8117,7 +8105,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -8126,13 +8114,13 @@
         <v>3184</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8153,7 +8141,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8168,7 +8156,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8183,7 +8171,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8186,13 @@
         <v>858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8213,13 +8201,13 @@
         <v>574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8228,13 +8216,13 @@
         <v>1432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8237,13 @@
         <v>91772</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -8264,10 +8252,10 @@
         <v>129580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -8279,13 +8267,13 @@
         <v>221352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,7 +8347,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -8368,13 +8356,13 @@
         <v>1019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8383,13 +8371,13 @@
         <v>1019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8392,13 @@
         <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8425,7 +8413,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8434,13 +8422,13 @@
         <v>159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8443,13 @@
         <v>11647</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>417</v>
+        <v>156</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8470,13 +8458,13 @@
         <v>664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8485,13 +8473,13 @@
         <v>12311</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8494,13 @@
         <v>12899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8527,7 +8515,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -8536,13 +8524,13 @@
         <v>12899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8557,10 +8545,10 @@
         <v>9851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>320</v>
@@ -8572,13 +8560,13 @@
         <v>2981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -8587,13 +8575,13 @@
         <v>12833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8596,13 @@
         <v>10681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8626,10 +8614,10 @@
         <v>65</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -8638,13 +8626,13 @@
         <v>14617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,13 +8647,13 @@
         <v>1245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8674,13 +8662,13 @@
         <v>1828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8689,13 +8677,13 @@
         <v>3073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,13 +8698,13 @@
         <v>503340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>981</v>
@@ -8725,13 +8713,13 @@
         <v>581425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>1555</v>
@@ -8740,13 +8728,13 @@
         <v>1084766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,7 +8790,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8814,13 +8802,13 @@
         <v>4212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8829,10 +8817,10 @@
         <v>2505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>36</v>
@@ -8844,13 +8832,13 @@
         <v>6717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8853,13 @@
         <v>4031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8880,13 +8868,13 @@
         <v>1132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -8895,13 +8883,13 @@
         <v>5163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8916,13 +8904,13 @@
         <v>36572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -8931,13 +8919,13 @@
         <v>10225</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -8946,13 +8934,13 @@
         <v>46797</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8967,13 +8955,13 @@
         <v>12196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8982,13 +8970,13 @@
         <v>6036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8997,13 +8985,13 @@
         <v>18232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9018,13 +9006,13 @@
         <v>44293</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -9033,13 +9021,13 @@
         <v>5061</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -9048,13 +9036,13 @@
         <v>49354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,10 +9060,10 @@
         <v>289</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -9084,13 +9072,13 @@
         <v>6214</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -9099,13 +9087,13 @@
         <v>32223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>357</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,13 +9108,13 @@
         <v>17819</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9138,10 +9126,10 @@
         <v>58</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -9150,13 +9138,13 @@
         <v>19672</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,13 +9159,13 @@
         <v>894116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>1477</v>
@@ -9186,13 +9174,13 @@
         <v>1024891</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>2344</v>
@@ -9201,13 +9189,13 @@
         <v>1919007</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9263,7 +9251,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -9278,10 +9266,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9305,13 +9293,13 @@
         <v>2742</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,7 +9320,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9341,13 +9329,13 @@
         <v>812</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9356,13 +9344,13 @@
         <v>3468</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9377,13 +9365,13 @@
         <v>19084</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -9392,13 +9380,13 @@
         <v>4338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>454</v>
+        <v>203</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -9407,13 +9395,13 @@
         <v>23422</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>455</v>
+        <v>312</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9428,13 +9416,13 @@
         <v>7233</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>355</v>
+        <v>453</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -9443,13 +9431,13 @@
         <v>7274</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9458,13 +9446,13 @@
         <v>14507</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>70</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9467,13 @@
         <v>20050</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>456</v>
+        <v>363</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -9494,13 +9482,13 @@
         <v>4716</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -9509,13 +9497,13 @@
         <v>24766</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9518,13 @@
         <v>16817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -9545,13 +9533,13 @@
         <v>6157</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -9560,13 +9548,13 @@
         <v>22974</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>459</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9569,13 @@
         <v>12420</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>460</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9611,13 +9599,13 @@
         <v>12420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>173</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9620,13 @@
         <v>647770</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H38" s="7">
         <v>1023</v>
@@ -9647,13 +9635,13 @@
         <v>851074</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M38" s="7">
         <v>1644</v>
@@ -9662,13 +9650,13 @@
         <v>1498843</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,7 +9712,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -9736,13 +9724,13 @@
         <v>9776</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -9751,13 +9739,13 @@
         <v>701</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -9766,13 +9754,13 @@
         <v>10477</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>417</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,13 +9775,13 @@
         <v>7389</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>173</v>
+        <v>458</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -9802,13 +9790,13 @@
         <v>3335</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -9817,13 +9805,13 @@
         <v>10725</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9826,13 @@
         <v>15701</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -9853,13 +9841,13 @@
         <v>6338</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>471</v>
+        <v>146</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -9868,13 +9856,13 @@
         <v>22039</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>353</v>
+        <v>469</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9889,13 +9877,13 @@
         <v>20456</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -9907,10 +9895,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
@@ -9919,13 +9907,13 @@
         <v>24633</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9940,13 +9928,13 @@
         <v>47762</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9955,13 +9943,13 @@
         <v>5688</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>454</v>
+        <v>203</v>
       </c>
       <c r="M44" s="7">
         <v>41</v>
@@ -9970,13 +9958,13 @@
         <v>53450</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9991,13 +9979,13 @@
         <v>26722</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>478</v>
+        <v>191</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -10006,13 +9994,13 @@
         <v>9084</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="M45" s="7">
         <v>33</v>
@@ -10021,13 +10009,13 @@
         <v>35806</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,13 +10030,13 @@
         <v>22790</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -10057,13 +10045,13 @@
         <v>2342</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -10072,13 +10060,13 @@
         <v>25132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10093,13 +10081,13 @@
         <v>814646</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H47" s="7">
         <v>1525</v>
@@ -10108,10 +10096,10 @@
         <v>1113762</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>49</v>
@@ -10123,13 +10111,13 @@
         <v>1928409</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,10 +10185,10 @@
         <v>17955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>20</v>
@@ -10212,13 +10200,13 @@
         <v>4224</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M49" s="7">
         <v>20</v>
@@ -10227,13 +10215,13 @@
         <v>22180</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,13 +10236,13 @@
         <v>14235</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10263,10 +10251,10 @@
         <v>5280</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>57</v>
@@ -10278,13 +10266,13 @@
         <v>19515</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10287,13 @@
         <v>84271</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>459</v>
+        <v>294</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>489</v>
+        <v>287</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -10314,13 +10302,13 @@
         <v>21565</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="M51" s="7">
         <v>83</v>
@@ -10329,13 +10317,13 @@
         <v>105836</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10338,13 @@
         <v>55383</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -10365,13 +10353,13 @@
         <v>17486</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="M52" s="7">
         <v>55</v>
@@ -10380,13 +10368,13 @@
         <v>72869</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>491</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,13 +10389,13 @@
         <v>125141</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H53" s="7">
         <v>27</v>
@@ -10416,13 +10404,13 @@
         <v>18447</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="M53" s="7">
         <v>119</v>
@@ -10431,13 +10419,13 @@
         <v>143587</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,10 +10443,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -10470,10 +10458,10 @@
         <v>65</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M54" s="7">
         <v>87</v>
@@ -10482,13 +10470,13 @@
         <v>105621</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10503,13 +10491,13 @@
         <v>55132</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>454</v>
+        <v>203</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -10518,13 +10506,13 @@
         <v>6596</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="M55" s="7">
         <v>45</v>
@@ -10536,10 +10524,10 @@
         <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10554,13 +10542,13 @@
         <v>2951645</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H56" s="7">
         <v>5247</v>
@@ -10569,13 +10557,13 @@
         <v>3700731</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M56" s="7">
         <v>8308</v>
@@ -10584,13 +10572,13 @@
         <v>6652377</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10646,7 +10634,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA335195-FF78-4D6D-B5DE-BE49E2493762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8432CA-44E3-45C5-8607-B54CF1A9131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1017D8A-4F30-4239-A134-28886D5DF796}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DADB1DCB-F666-41A0-9C57-BD9414FBFBFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="507">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>6.0</t>
@@ -112,1438 +112,1450 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>93,41%</t>
@@ -1958,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901D7E9D-4ED1-4056-B797-61716ADFB3BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808C4A76-EEDD-4034-A6BE-7159DFC39657}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2648,10 +2660,10 @@
         <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2675,13 +2687,13 @@
         <v>7858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2708,13 @@
         <v>4830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2711,13 +2723,13 @@
         <v>3459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2726,13 +2738,13 @@
         <v>8290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2759,13 @@
         <v>25779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2762,13 +2774,13 @@
         <v>2845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2777,13 +2789,13 @@
         <v>28624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2810,13 @@
         <v>6025</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2819,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2831,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2864,13 +2876,13 @@
         <v>935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2879,13 +2891,13 @@
         <v>2891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2912,13 @@
         <v>536038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
@@ -2915,13 +2927,13 @@
         <v>575964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -2930,13 +2942,13 @@
         <v>1112002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3004,13 +3016,13 @@
         <v>2109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3025,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3034,7 +3046,7 @@
         <v>2109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
@@ -3055,13 +3067,13 @@
         <v>6418</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3076,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3085,13 +3097,13 @@
         <v>6418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3118,13 @@
         <v>17634</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3121,13 +3133,13 @@
         <v>2037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3136,13 +3148,13 @@
         <v>19671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3169,13 @@
         <v>13741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3172,13 +3184,13 @@
         <v>1221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3187,13 +3199,13 @@
         <v>14962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3220,13 @@
         <v>29486</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3223,13 +3235,13 @@
         <v>5053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3238,13 +3250,13 @@
         <v>34539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>17808</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -3274,13 +3286,13 @@
         <v>3058</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3289,13 +3301,13 @@
         <v>20866</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3322,13 @@
         <v>10713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3331,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3340,13 +3352,13 @@
         <v>10713</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3373,13 @@
         <v>920037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>928</v>
@@ -3376,13 +3388,13 @@
         <v>1018921</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>1774</v>
@@ -3391,13 +3403,13 @@
         <v>1938959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3465,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -3465,13 +3477,13 @@
         <v>3926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3486,7 +3498,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3495,13 +3507,13 @@
         <v>3926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3528,13 @@
         <v>947</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3537,7 +3549,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3546,13 +3558,13 @@
         <v>947</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3579,13 @@
         <v>12943</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3588,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3597,13 +3609,13 @@
         <v>12943</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3630,13 @@
         <v>10817</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3633,13 +3645,13 @@
         <v>2017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3648,13 +3660,13 @@
         <v>12834</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3681,13 @@
         <v>34714</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3684,13 +3696,13 @@
         <v>1980</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -3699,13 +3711,13 @@
         <v>36694</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3732,13 @@
         <v>16856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3735,13 +3747,13 @@
         <v>2037</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -3750,13 +3762,13 @@
         <v>18893</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,10 +3786,10 @@
         <v>63</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3792,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -3801,13 +3813,13 @@
         <v>12931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3834,13 @@
         <v>667293</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -3926,13 +3938,13 @@
         <v>6577</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3947,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -3962,7 +3974,7 @@
         <v>184</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,10 +3992,10 @@
         <v>185</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3998,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -4013,7 +4025,7 @@
         <v>187</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,10 +4040,10 @@
         <v>16152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>188</v>
@@ -4046,10 +4058,10 @@
         <v>185</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -4058,13 +4070,13 @@
         <v>21533</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>21622</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -4100,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="M43" s="7">
         <v>24</v>
@@ -4109,13 +4121,13 @@
         <v>23504</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,10 +4142,10 @@
         <v>24416</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>195</v>
@@ -4151,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
@@ -4160,13 +4172,13 @@
         <v>26300</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4193,13 @@
         <v>15357</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4196,13 +4208,13 @@
         <v>4840</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M45" s="7">
         <v>21</v>
@@ -4211,13 +4223,13 @@
         <v>20198</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4244,13 @@
         <v>17867</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4247,13 +4259,13 @@
         <v>3288</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -4262,13 +4274,13 @@
         <v>21155</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4295,13 @@
         <v>840036</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H47" s="7">
         <v>987</v>
@@ -4298,28 +4310,28 @@
         <v>1034627</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M47" s="7">
         <v>1786</v>
       </c>
       <c r="N47" s="7">
-        <v>1874663</v>
+        <v>1874664</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4373,7 @@
         <v>1912</v>
       </c>
       <c r="N48" s="7">
-        <v>1998743</v>
+        <v>1998744</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -4387,13 +4399,13 @@
         <v>16249</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4408,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M49" s="7">
         <v>16</v>
@@ -4417,13 +4429,13 @@
         <v>16249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4450,13 @@
         <v>14130</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4459,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M50" s="7">
         <v>13</v>
@@ -4468,10 +4480,10 @@
         <v>14130</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>220</v>
@@ -4489,10 +4501,10 @@
         <v>54588</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>222</v>
@@ -4504,13 +4516,13 @@
         <v>7418</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M51" s="7">
         <v>59</v>
@@ -4519,13 +4531,13 @@
         <v>62006</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4552,13 @@
         <v>51871</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>225</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -4558,10 +4570,10 @@
         <v>186</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="M52" s="7">
         <v>59</v>
@@ -4570,13 +4582,13 @@
         <v>60451</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4603,13 @@
         <v>117139</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H53" s="7">
         <v>12</v>
@@ -4609,10 +4621,10 @@
         <v>32</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="M53" s="7">
         <v>124</v>
@@ -4621,13 +4633,13 @@
         <v>128901</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4654,13 @@
         <v>60188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H54" s="7">
         <v>12</v>
@@ -4660,10 +4672,10 @@
         <v>32</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="M54" s="7">
         <v>71</v>
@@ -4672,13 +4684,13 @@
         <v>72065</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,10 +4708,10 @@
         <v>31</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4708,13 +4720,13 @@
         <v>7027</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
@@ -4723,13 +4735,13 @@
         <v>48551</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,28 +4756,28 @@
         <v>3069021</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H56" s="7">
         <v>3254</v>
       </c>
       <c r="I56" s="7">
-        <v>3509753</v>
+        <v>3509752</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M56" s="7">
         <v>6115</v>
@@ -4774,13 +4786,13 @@
         <v>6578773</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4819,7 @@
         <v>3297</v>
       </c>
       <c r="I57" s="7">
-        <v>3556416</v>
+        <v>3556415</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>50</v>
@@ -4836,7 +4848,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD206F9-2F8B-4303-B2C8-79CD20DB080B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862BCC57-D1AC-48A4-85F1-BF2863B93337}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4874,7 +4886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4981,13 +4993,13 @@
         <v>1058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4996,13 +5008,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5011,13 +5023,13 @@
         <v>2084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5044,13 @@
         <v>2028</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5053,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5062,13 +5074,13 @@
         <v>2028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5095,13 @@
         <v>2060</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5104,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5113,13 +5125,13 @@
         <v>2060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5146,7 @@
         <v>993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -5155,7 +5167,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5164,13 +5176,13 @@
         <v>993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,7 +5212,7 @@
         <v>812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -5215,7 +5227,7 @@
         <v>2617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
@@ -5236,10 +5248,10 @@
         <v>2848</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>266</v>
@@ -5269,10 +5281,10 @@
         <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5299,13 @@
         <v>3205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5308,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5317,13 +5329,13 @@
         <v>3205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5350,13 @@
         <v>102548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5353,13 +5365,13 @@
         <v>109735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -5368,13 +5380,13 @@
         <v>212283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5454,13 @@
         <v>4099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5472,13 +5484,13 @@
         <v>4099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5505,13 @@
         <v>1247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5508,13 +5520,13 @@
         <v>890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5523,13 +5535,13 @@
         <v>2137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,10 +5559,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5574,13 +5586,13 @@
         <v>4813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5607,13 @@
         <v>4768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5625,13 +5637,13 @@
         <v>4768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5658,13 @@
         <v>13951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5661,13 +5673,13 @@
         <v>2750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5676,13 +5688,13 @@
         <v>16701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5709,13 @@
         <v>6984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5718,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5727,13 +5739,13 @@
         <v>8859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5760,13 @@
         <v>7151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5763,13 +5775,13 @@
         <v>845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5778,13 +5790,13 @@
         <v>7996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5811,13 @@
         <v>515240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -5817,10 +5829,10 @@
         <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>1040</v>
@@ -5829,13 +5841,13 @@
         <v>1068359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5903,13 +5915,13 @@
         <v>8078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5924,7 +5936,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5933,13 +5945,13 @@
         <v>8078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5966,13 @@
         <v>2617</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5969,13 +5981,13 @@
         <v>1018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5990,7 +6002,7 @@
         <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6017,13 @@
         <v>15350</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6020,13 +6032,13 @@
         <v>2809</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6035,13 +6047,13 @@
         <v>18159</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6068,13 @@
         <v>6870</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6077,7 +6089,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6089,10 +6101,10 @@
         <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6119,13 @@
         <v>21067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6122,13 +6134,13 @@
         <v>8691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6137,13 +6149,13 @@
         <v>29757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6170,13 @@
         <v>25803</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -6173,13 +6185,13 @@
         <v>4684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -6188,13 +6200,13 @@
         <v>30487</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6221,13 @@
         <v>22041</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -6224,13 +6236,13 @@
         <v>7378</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6239,13 +6251,13 @@
         <v>29419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6272,13 @@
         <v>920605</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -6275,13 +6287,13 @@
         <v>1017391</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>1811</v>
@@ -6290,13 +6302,13 @@
         <v>1937996</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,7 +6364,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -6364,13 +6376,13 @@
         <v>2159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6379,13 +6391,13 @@
         <v>943</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -6394,13 +6406,13 @@
         <v>3102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6427,13 @@
         <v>4490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6436,7 +6448,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6445,13 +6457,13 @@
         <v>4490</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,10 +6478,10 @@
         <v>19832</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>334</v>
@@ -6481,13 +6493,13 @@
         <v>1932</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -6496,10 +6508,10 @@
         <v>21764</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>336</v>
@@ -6517,13 +6529,13 @@
         <v>4088</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6532,13 +6544,13 @@
         <v>2013</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -6547,13 +6559,13 @@
         <v>6102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6580,13 @@
         <v>17322</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -6589,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -6598,13 +6610,13 @@
         <v>19193</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,10 +6634,10 @@
         <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6634,13 +6646,13 @@
         <v>4729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -6649,13 +6661,13 @@
         <v>16513</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6682,13 @@
         <v>14666</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6688,10 +6700,10 @@
         <v>55</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6700,13 +6712,13 @@
         <v>17454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6733,13 @@
         <v>685210</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>721</v>
@@ -6825,13 +6837,13 @@
         <v>8158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -6840,13 +6852,13 @@
         <v>1134</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -6855,13 +6867,13 @@
         <v>9293</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,13 +6888,13 @@
         <v>2016</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -6906,13 +6918,13 @@
         <v>3898</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>308</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,10 +6942,10 @@
         <v>355</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -6942,13 +6954,13 @@
         <v>5061</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -6957,13 +6969,13 @@
         <v>23490</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,13 +6990,13 @@
         <v>13927</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -6993,13 +7005,13 @@
         <v>2175</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="M43" s="7">
         <v>16</v>
@@ -7008,13 +7020,13 @@
         <v>16102</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,10 +7044,10 @@
         <v>358</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -7044,13 +7056,13 @@
         <v>8893</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -7059,13 +7071,13 @@
         <v>43183</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7092,13 @@
         <v>33829</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -7095,13 +7107,13 @@
         <v>11437</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7110,13 +7122,13 @@
         <v>45266</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7143,13 @@
         <v>13576</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -7146,13 +7158,13 @@
         <v>6254</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>367</v>
+        <v>56</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -7161,13 +7173,13 @@
         <v>19830</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7194,13 @@
         <v>813342</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H47" s="7">
         <v>923</v>
@@ -7197,13 +7209,13 @@
         <v>1006943</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="M47" s="7">
         <v>1734</v>
@@ -7212,13 +7224,13 @@
         <v>1820285</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7298,13 @@
         <v>23552</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -7304,7 +7316,7 @@
         <v>187</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>186</v>
@@ -7319,10 +7331,10 @@
         <v>25</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7349,13 @@
         <v>12398</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7352,13 +7364,13 @@
         <v>3791</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -7367,13 +7379,13 @@
         <v>16189</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,10 +7400,10 @@
         <v>60484</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>379</v>
@@ -7403,13 +7415,13 @@
         <v>9802</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>68</v>
@@ -7418,13 +7430,13 @@
         <v>70286</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7451,13 @@
         <v>30646</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -7457,10 +7469,10 @@
         <v>184</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M52" s="7">
         <v>35</v>
@@ -7469,13 +7481,13 @@
         <v>35777</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7502,13 @@
         <v>88435</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
@@ -7505,13 +7517,13 @@
         <v>23017</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M53" s="7">
         <v>108</v>
@@ -7520,13 +7532,13 @@
         <v>111451</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7553,13 @@
         <v>81250</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>25</v>
@@ -7556,13 +7568,13 @@
         <v>24512</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M54" s="7">
         <v>101</v>
@@ -7571,13 +7583,13 @@
         <v>105762</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7604,13 @@
         <v>60640</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="H55" s="7">
         <v>17</v>
@@ -7607,13 +7619,13 @@
         <v>17265</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="M55" s="7">
         <v>73</v>
@@ -7622,13 +7634,13 @@
         <v>77904</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7655,13 @@
         <v>3036946</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H56" s="7">
         <v>3250</v>
@@ -7658,13 +7670,13 @@
         <v>3457921</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="M56" s="7">
         <v>6145</v>
@@ -7673,13 +7685,13 @@
         <v>6494867</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7747,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7756,7 +7768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61D880E-CEA7-4F2F-8587-E910C51711A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD17D3EA-0ADB-47E6-8DCB-6D5DCCF2A5B7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7773,7 +7785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7886,7 +7898,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7901,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7910,13 +7922,13 @@
         <v>1225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,7 +7949,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7952,7 +7964,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7967,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +7994,13 @@
         <v>1268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8003,7 +8015,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8012,13 +8024,13 @@
         <v>1268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8045,13 @@
         <v>2598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8054,7 +8066,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8063,13 +8075,13 @@
         <v>2598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8096,13 @@
         <v>3184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8105,7 +8117,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -8114,13 +8126,13 @@
         <v>3184</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,7 +8153,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8156,7 +8168,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8171,7 +8183,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8198,13 @@
         <v>858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8201,13 +8213,13 @@
         <v>574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8216,13 +8228,13 @@
         <v>1432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8249,13 @@
         <v>91772</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -8252,10 +8264,10 @@
         <v>129580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -8267,13 +8279,13 @@
         <v>221352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,7 +8359,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -8362,7 +8374,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8377,7 +8389,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,13 +8404,13 @@
         <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8413,7 +8425,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8422,13 +8434,13 @@
         <v>159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,13 +8455,13 @@
         <v>11647</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8458,13 +8470,13 @@
         <v>664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8473,13 +8485,13 @@
         <v>12311</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,13 +8506,13 @@
         <v>12899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8515,7 +8527,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -8524,13 +8536,13 @@
         <v>12899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8557,13 @@
         <v>9851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -8560,13 +8572,13 @@
         <v>2981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -8575,13 +8587,13 @@
         <v>12833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8608,13 @@
         <v>10681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8611,13 +8623,13 @@
         <v>3936</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -8626,13 +8638,13 @@
         <v>14617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8659,13 @@
         <v>1245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8662,13 +8674,13 @@
         <v>1828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8677,13 +8689,13 @@
         <v>3073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8710,13 @@
         <v>503340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>981</v>
@@ -8713,13 +8725,13 @@
         <v>581425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>1555</v>
@@ -8728,13 +8740,13 @@
         <v>1084766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8790,7 +8802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8802,13 +8814,13 @@
         <v>4212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8823,7 +8835,7 @@
         <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -8832,13 +8844,13 @@
         <v>6717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8853,13 +8865,13 @@
         <v>4031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8868,13 +8880,13 @@
         <v>1132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -8883,13 +8895,13 @@
         <v>5163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8904,13 +8916,13 @@
         <v>36572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -8919,13 +8931,13 @@
         <v>10225</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -8934,13 +8946,13 @@
         <v>46797</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8955,13 +8967,13 @@
         <v>12196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8970,13 +8982,13 @@
         <v>6036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8985,13 +8997,13 @@
         <v>18232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9006,13 +9018,13 @@
         <v>44293</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -9021,13 +9033,13 @@
         <v>5061</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -9036,13 +9048,13 @@
         <v>49354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,13 +9069,13 @@
         <v>26009</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -9072,13 +9084,13 @@
         <v>6214</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -9087,13 +9099,13 @@
         <v>32223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>437</v>
+        <v>230</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>438</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,13 +9120,13 @@
         <v>17819</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>439</v>
+        <v>259</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9126,25 +9138,25 @@
         <v>58</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>19672</v>
+        <v>19671</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,13 +9171,13 @@
         <v>894116</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>1477</v>
@@ -9174,28 +9186,28 @@
         <v>1024891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>2344</v>
       </c>
       <c r="N29" s="7">
-        <v>1919007</v>
+        <v>1919006</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,7 +9249,7 @@
         <v>2479</v>
       </c>
       <c r="N30" s="7">
-        <v>2097165</v>
+        <v>2097164</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>50</v>
@@ -9251,7 +9263,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -9266,10 +9278,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9296,10 +9308,10 @@
         <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,7 +9332,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9335,7 +9347,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9344,13 +9356,13 @@
         <v>3468</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>308</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9365,13 +9377,13 @@
         <v>19084</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>452</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -9380,13 +9392,13 @@
         <v>4338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>203</v>
+        <v>455</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -9395,13 +9407,13 @@
         <v>23422</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9428,13 @@
         <v>7233</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>457</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -9431,13 +9443,13 @@
         <v>7274</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9446,13 +9458,13 @@
         <v>14507</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>454</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,13 +9479,13 @@
         <v>20050</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -9482,13 +9494,13 @@
         <v>4716</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -9497,13 +9509,13 @@
         <v>24766</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>437</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>455</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,13 +9530,13 @@
         <v>16817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -9533,13 +9545,13 @@
         <v>6157</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>457</v>
+        <v>111</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -9548,13 +9560,13 @@
         <v>22974</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>294</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9581,13 @@
         <v>12420</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>273</v>
+        <v>462</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9599,13 +9611,13 @@
         <v>12420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>36</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9632,13 @@
         <v>647770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H38" s="7">
         <v>1023</v>
@@ -9635,13 +9647,13 @@
         <v>851074</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M38" s="7">
         <v>1644</v>
@@ -9650,13 +9662,13 @@
         <v>1498843</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,13 +9736,13 @@
         <v>9776</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>473</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -9739,13 +9751,13 @@
         <v>701</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -9754,13 +9766,13 @@
         <v>10477</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,13 +9787,13 @@
         <v>7389</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>458</v>
+        <v>36</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -9790,13 +9802,13 @@
         <v>3335</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>110</v>
+        <v>474</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -9811,7 +9823,7 @@
         <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9838,13 @@
         <v>15701</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -9841,13 +9853,13 @@
         <v>6338</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -9856,13 +9868,13 @@
         <v>22039</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,16 +9886,16 @@
         <v>17</v>
       </c>
       <c r="D43" s="7">
-        <v>20456</v>
+        <v>20457</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>118</v>
+        <v>477</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>229</v>
+        <v>478</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -9895,10 +9907,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>342</v>
+        <v>479</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
@@ -9907,13 +9919,13 @@
         <v>24633</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9928,13 +9940,13 @@
         <v>47762</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9943,13 +9955,13 @@
         <v>5688</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>203</v>
+        <v>455</v>
       </c>
       <c r="M44" s="7">
         <v>41</v>
@@ -9958,13 +9970,13 @@
         <v>53450</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9979,13 +9991,13 @@
         <v>26722</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>475</v>
+        <v>113</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -9994,13 +10006,13 @@
         <v>9084</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="M45" s="7">
         <v>33</v>
@@ -10009,13 +10021,13 @@
         <v>35806</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>80</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10030,13 +10042,13 @@
         <v>22790</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>477</v>
+        <v>128</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -10045,13 +10057,13 @@
         <v>2342</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -10060,13 +10072,13 @@
         <v>25132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10078,16 +10090,16 @@
         <v>890</v>
       </c>
       <c r="D47" s="7">
-        <v>814646</v>
+        <v>814647</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H47" s="7">
         <v>1525</v>
@@ -10096,13 +10108,13 @@
         <v>1113762</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>483</v>
+        <v>102</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="M47" s="7">
         <v>2415</v>
@@ -10111,13 +10123,13 @@
         <v>1928409</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10129,7 +10141,7 @@
         <v>1005</v>
       </c>
       <c r="D48" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -10185,13 +10197,13 @@
         <v>17955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -10200,13 +10212,13 @@
         <v>4224</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="M49" s="7">
         <v>20</v>
@@ -10215,13 +10227,13 @@
         <v>22180</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10236,13 +10248,13 @@
         <v>14235</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>487</v>
+        <v>237</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10254,10 +10266,10 @@
         <v>184</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -10266,13 +10278,13 @@
         <v>19515</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10287,13 +10299,13 @@
         <v>84271</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>294</v>
+        <v>456</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -10302,13 +10314,13 @@
         <v>21565</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>191</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="M51" s="7">
         <v>83</v>
@@ -10317,13 +10329,13 @@
         <v>105836</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10338,13 +10350,13 @@
         <v>55383</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>130</v>
+        <v>436</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -10353,13 +10365,13 @@
         <v>17486</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="M52" s="7">
         <v>55</v>
@@ -10368,13 +10380,13 @@
         <v>72869</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10389,13 +10401,13 @@
         <v>125141</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H53" s="7">
         <v>27</v>
@@ -10404,13 +10416,13 @@
         <v>18447</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="M53" s="7">
         <v>119</v>
@@ -10419,13 +10431,13 @@
         <v>143587</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
+        <v>499</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10443,10 +10455,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -10455,13 +10467,13 @@
         <v>25391</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="M54" s="7">
         <v>87</v>
@@ -10470,13 +10482,13 @@
         <v>105621</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10491,13 +10503,13 @@
         <v>55132</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -10509,10 +10521,10 @@
         <v>61</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="M55" s="7">
         <v>45</v>
@@ -10524,7 +10536,7 @@
         <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>60</v>
@@ -10542,13 +10554,13 @@
         <v>2951645</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H56" s="7">
         <v>5247</v>
@@ -10557,13 +10569,13 @@
         <v>3700731</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="M56" s="7">
         <v>8308</v>
@@ -10572,13 +10584,13 @@
         <v>6652377</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>500</v>
+        <v>216</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10634,7 +10646,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número medio de días a la semana que la población realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares</t>
+          <t>Número medio de días a la semana que la población realiza un entrenamiento físico deportivo, como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
